--- a/Invoice/Transaction Clean Up for Contact/Main.rvl.xlsx
+++ b/Invoice/Transaction Clean Up for Contact/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="76">
   <si>
     <t>Flow</t>
   </si>
@@ -261,7 +261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="205">
+  <borders count="208">
     <border>
       <left/>
       <right/>
@@ -473,11 +473,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -683,6 +686,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="202" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="203" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="204" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="205" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="206" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="207" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H37"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -732,224 +738,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="190"/>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="24"/>
     </row>
     <row r="3">
-      <c r="A3" s="189"/>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="175"/>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="173"/>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="172"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="175"/>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="173"/>
+      <c r="A9" s="176"/>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="172"/>
+      <c r="A10" s="170"/>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="206"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="176"/>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="170"/>
+      <c r="A13" s="178"/>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="188"/>
+      <c r="A14" s="167"/>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="187"/>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>50</v>
-      </c>
+      <c r="A15" s="207"/>
     </row>
     <row r="16">
-      <c r="A16" s="186"/>
+      <c r="A16" s="165" t="s">
+        <v>8</v>
+      </c>
       <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="185"/>
+      <c r="A17" s="179"/>
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -966,475 +972,198 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="184"/>
+      <c r="A18" s="164"/>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="169"/>
+      <c r="A19" s="163"/>
     </row>
     <row r="20">
-      <c r="A20" s="195" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
+      <c r="A20" s="162"/>
     </row>
     <row r="21">
-      <c r="A21" s="194" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
+      <c r="A21" s="161"/>
     </row>
     <row r="22">
-      <c r="A22" s="193"/>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" t="s">
-        <v>55</v>
-      </c>
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23">
-      <c r="A23" s="192"/>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>57</v>
-      </c>
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
     </row>
     <row r="24">
-      <c r="A24" s="191" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
     </row>
     <row r="25">
-      <c r="A25" s="168" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64"/>
     </row>
     <row r="26">
-      <c r="A26" s="178"/>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>70</v>
-      </c>
+      <c r="A26" s="65"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="72"/>
     </row>
     <row r="27">
-      <c r="A27" s="167"/>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>71</v>
-      </c>
+      <c r="A27" s="73"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="80"/>
     </row>
     <row r="28">
-      <c r="A28" s="166" t="s">
-        <v>60</v>
-      </c>
+      <c r="A28" s="81"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="88"/>
     </row>
     <row r="29">
-      <c r="A29" s="202"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="96"/>
     </row>
     <row r="30">
-      <c r="A30" s="201" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
+      <c r="A30" s="97"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="104"/>
     </row>
     <row r="31">
-      <c r="A31" s="200" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" t="s">
-        <v>44</v>
-      </c>
+      <c r="A31" s="105"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="112"/>
     </row>
     <row r="32">
-      <c r="A32" s="199"/>
-      <c r="B32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" t="s">
-        <v>55</v>
-      </c>
+      <c r="A32" s="113"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="120"/>
     </row>
     <row r="33">
-      <c r="A33" s="198"/>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s">
-        <v>48</v>
-      </c>
+      <c r="A33" s="121"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="128"/>
     </row>
     <row r="34">
-      <c r="A34" s="197" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
+      <c r="A34" s="129"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="136"/>
     </row>
     <row r="35">
-      <c r="A35" s="183" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
+      <c r="A35" s="137"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="144"/>
     </row>
     <row r="36">
-      <c r="A36" s="182"/>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s">
-        <v>72</v>
-      </c>
+      <c r="A36" s="145"/>
+      <c r="B36" s="146"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="152"/>
     </row>
     <row r="37">
-      <c r="A37" s="181"/>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="180" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="203"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="165" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="179"/>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="164"/>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="163"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="162"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="161"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="33"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="40"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="41"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="48"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="49"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="56"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="57"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="64"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="65"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="72"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="73"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="80"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="81"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="88"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="89"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="96"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="97"/>
-      <c r="B54" s="98"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="100"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="104"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="105"/>
-      <c r="B55" s="106"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="108"/>
-      <c r="E55" s="109"/>
-      <c r="F55" s="110"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="112"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="113"/>
-      <c r="B56" s="114"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="117"/>
-      <c r="F56" s="118"/>
-      <c r="G56" s="119"/>
-      <c r="H56" s="120"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="121"/>
-      <c r="B57" s="122"/>
-      <c r="C57" s="123"/>
-      <c r="D57" s="124"/>
-      <c r="E57" s="125"/>
-      <c r="F57" s="126"/>
-      <c r="G57" s="127"/>
-      <c r="H57" s="128"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="129"/>
-      <c r="B58" s="130"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="133"/>
-      <c r="F58" s="134"/>
-      <c r="G58" s="135"/>
-      <c r="H58" s="136"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="137"/>
-      <c r="B59" s="138"/>
-      <c r="C59" s="139"/>
-      <c r="D59" s="140"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="142"/>
-      <c r="G59" s="143"/>
-      <c r="H59" s="144"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="145"/>
-      <c r="B60" s="146"/>
-      <c r="C60" s="147"/>
-      <c r="D60" s="148"/>
-      <c r="E60" s="149"/>
-      <c r="F60" s="150"/>
-      <c r="G60" s="151"/>
-      <c r="H60" s="152"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="153"/>
-      <c r="B61" s="154"/>
-      <c r="C61" s="155"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="157"/>
-      <c r="F61" s="158"/>
-      <c r="G61" s="159"/>
-      <c r="H61" s="160"/>
+      <c r="A37" s="153"/>
+      <c r="B37" s="154"/>
+      <c r="C37" s="155"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="160"/>
     </row>
   </sheetData>
 </worksheet>
